--- a/biology/Médecine/Test_de_Bernstein/Test_de_Bernstein.xlsx
+++ b/biology/Médecine/Test_de_Bernstein/Test_de_Bernstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de Bernstein, ou test de perfusion acide, est un examen qui permet de reproduire la douleur chez les patients souffrant de reflux gastro-œsophagien (RGO). Il est indiqué dans les douleurs thoraciques d'origine œsophagienne et nécessite la pleine coopération du malade.
-Le test de Bernstein est préconisé quand il existe un doute sur l'origine de douleurs thoraciques afin d'écarter une cause cardiaque notamment dans le cas d'un éventuel syndrome angineux[1].
-Il est effectué en perfusant en alternance dans l’œsophage une solution saline isotonique et une solution d'acide chlorhydrique (HCl) de 0,1 N par l'intermédiaire d'une sonde naso-gastrique, à une vitesse de 6 ml/min[2],[3]. Le test sera négatif chez les personnes sans RGO mais peut être faussement négatif notamment chez les patients soumis à un traitement.
-Ce test a en effet une bonne spécificité (83–94 %) mais une mauvaise sensibilité (32–46 %) ce qui le rend obsolète depuis la pHmétrie œsophagienne[4].
+Le test de Bernstein est préconisé quand il existe un doute sur l'origine de douleurs thoraciques afin d'écarter une cause cardiaque notamment dans le cas d'un éventuel syndrome angineux.
+Il est effectué en perfusant en alternance dans l’œsophage une solution saline isotonique et une solution d'acide chlorhydrique (HCl) de 0,1 N par l'intermédiaire d'une sonde naso-gastrique, à une vitesse de 6 ml/min,. Le test sera négatif chez les personnes sans RGO mais peut être faussement négatif notamment chez les patients soumis à un traitement.
+Ce test a en effet une bonne spécificité (83–94 %) mais une mauvaise sensibilité (32–46 %) ce qui le rend obsolète depuis la pHmétrie œsophagienne.
 </t>
         </is>
       </c>
